--- a/results/datasheets/update-results.xlsx
+++ b/results/datasheets/update-results.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">6.587754 MB</t>
   </si>
@@ -39,6 +40,15 @@
   <si>
     <t xml:space="preserve">260.369636 MB</t>
   </si>
+  <si>
+    <t xml:space="preserve">client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server</t>
+  </si>
 </sst>
 </file>
 
@@ -47,11 +57,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +78,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,7 +214,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -221,6 +247,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -284,17 +311,17 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51455359"/>
-        <c:axId val="95296513"/>
+        <c:axId val="25882484"/>
+        <c:axId val="45749555"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51455359"/>
+        <c:axId val="25882484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -323,12 +350,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95296513"/>
+        <c:crossAx val="45749555"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95296513"/>
+        <c:axId val="45749555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +370,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -372,7 +399,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51455359"/>
+        <c:crossAx val="25882484"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -420,9 +447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -430,8 +457,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9958320" y="1107000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="9806040" y="1107000"/>
+        <a:ext cx="5670360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -451,13 +478,13 @@
   </sheetPr>
   <dimension ref="E5:K24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,4 +703,550 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B4:S25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>10.524</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7.834</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6.526</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>22.305</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>16.787</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>16.693</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>43.327</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>33.206</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>38.634</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>102.331</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>80.285</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>78.694</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>194.24</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>155.605</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>138.012</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>349.188</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>279.908</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>10.798</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8.023</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6.511</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>13.386</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>42.073</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>32.312</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>30.995</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>101.952</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>80.001</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>62.264</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>194.334</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>155.397</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>108.214</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>355.472</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>284.001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10.648</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>6.532</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>21.166</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>16.071</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>13.431</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>42.321</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>32.563</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>30.953</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100.798</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>79.48</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>62.38</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>195.277</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>156.334</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>108.394</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>352.734</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>285.425</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>10.793</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8.179</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>6.517</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>22.452</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>16.952</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>13.429</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>41.501</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>31.931</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>30.846</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>101.519</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>79.496</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>62.276</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>202.141</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>161.04</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>109.08</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>345.901</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>281.781</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11.047</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6.542</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>21.307</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>16.164</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>43.722</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>33.408</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>32.195</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>102.35</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>80.101</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>62.477</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>192.503</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>154.714</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>108.718</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>349.495</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>284.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10.102</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7.895</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>6.496</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>17.149</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>13.425</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>44.095</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>33.684</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>30.925</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>103.818</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>81.257</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>62.398</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>196.602</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>157.092</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>109.024</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>342.849</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>277.918</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">AVERAGE(B6:B11)</f>
+        <v>3.05566666666667</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">AVERAGE(E6:E11)</f>
+        <v>6.52066666666667</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">AVERAGE(H6:H11)</f>
+        <v>13.969</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">AVERAGE(K6:K11)</f>
+        <v>32.4246666666667</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">AVERAGE(N6:N11)</f>
+        <v>65.0815</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">AVERAGE(Q6:Q11)</f>
+        <v>113.573666666667</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">AVERAGE(C6:C11)</f>
+        <v>10.652</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">AVERAGE(F6:F11)</f>
+        <v>21.9033333333333</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">AVERAGE(I6:I11)</f>
+        <v>42.8398333333333</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">AVERAGE(L6:L11)</f>
+        <v>102.128</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">AVERAGE(O6:O11)</f>
+        <v>195.8495</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">AVERAGE(R6:R11)</f>
+        <v>349.273166666667</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">AVERAGE(D6:D11)</f>
+        <v>7.9205</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">AVERAGE(G6:G11)</f>
+        <v>16.5521666666667</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">AVERAGE(J6:J11)</f>
+        <v>32.8506666666667</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">AVERAGE(M6:M11)</f>
+        <v>80.1033333333333</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">AVERAGE(P6:P11)</f>
+        <v>156.697</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">AVERAGE(S6:S11)</f>
+        <v>282.173833333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results/datasheets/update-results.xlsx
+++ b/results/datasheets/update-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old res combined" sheetId="1" r:id="rId1"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:S25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371DD5AB-3C93-1647-B72B-EC6B6B0D4652}">
   <dimension ref="A1:BL433"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
